--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Iraq_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Iraq_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G231"/>
+  <dimension ref="A1:G234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2911,16 +2911,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>69885000000000</v>
+        <v>71626700000000</v>
       </c>
       <c r="D99" t="n">
-        <v>69885000000000</v>
+        <v>71626700000000</v>
       </c>
       <c r="E99" t="n">
-        <v>69885000000000</v>
+        <v>71626700000000</v>
       </c>
       <c r="F99" t="n">
-        <v>69885000000000</v>
+        <v>71626700000000</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -2936,16 +2936,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>70477000000000</v>
+        <v>72389800000000</v>
       </c>
       <c r="D100" t="n">
-        <v>70477000000000</v>
+        <v>72389800000000</v>
       </c>
       <c r="E100" t="n">
-        <v>70477000000000</v>
+        <v>72389800000000</v>
       </c>
       <c r="F100" t="n">
-        <v>70477000000000</v>
+        <v>72389800000000</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>72034000000000</v>
       </c>
       <c r="D101" t="n">
-        <v>72034000000000</v>
+        <v>73592600000000</v>
       </c>
       <c r="E101" t="n">
         <v>72034000000000</v>
       </c>
       <c r="F101" t="n">
-        <v>72034000000000</v>
+        <v>73592600000000</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -2986,16 +2986,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>73626000000000</v>
+        <v>75216000000000</v>
       </c>
       <c r="D102" t="n">
-        <v>73626000000000</v>
+        <v>75216000000000</v>
       </c>
       <c r="E102" t="n">
-        <v>73626000000000</v>
+        <v>75216000000000</v>
       </c>
       <c r="F102" t="n">
-        <v>73626000000000</v>
+        <v>75216000000000</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -3011,16 +3011,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>71239000000000</v>
+        <v>73207900000000</v>
       </c>
       <c r="D103" t="n">
-        <v>71239000000000</v>
+        <v>73207900000000</v>
       </c>
       <c r="E103" t="n">
-        <v>71239000000000</v>
+        <v>73207900000000</v>
       </c>
       <c r="F103" t="n">
-        <v>71239000000000</v>
+        <v>73207900000000</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -3039,13 +3039,13 @@
         <v>71197000000000</v>
       </c>
       <c r="D104" t="n">
-        <v>71197000000000</v>
+        <v>72682900000000</v>
       </c>
       <c r="E104" t="n">
         <v>71197000000000</v>
       </c>
       <c r="F104" t="n">
-        <v>71197000000000</v>
+        <v>72682900000000</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -3061,16 +3061,16 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>71436000000000</v>
+        <v>72968200000000</v>
       </c>
       <c r="D105" t="n">
-        <v>71436000000000</v>
+        <v>72968200000000</v>
       </c>
       <c r="E105" t="n">
-        <v>71436000000000</v>
+        <v>72968200000000</v>
       </c>
       <c r="F105" t="n">
-        <v>71436000000000</v>
+        <v>72968200000000</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>72362000000000</v>
+        <v>73768600000000</v>
       </c>
       <c r="D106" t="n">
-        <v>72362000000000</v>
+        <v>73768600000000</v>
       </c>
       <c r="E106" t="n">
-        <v>72362000000000</v>
+        <v>73768600000000</v>
       </c>
       <c r="F106" t="n">
-        <v>72362000000000</v>
+        <v>73768600000000</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -3111,16 +3111,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>72332000000000</v>
+        <v>73543300000000</v>
       </c>
       <c r="D107" t="n">
-        <v>72332000000000</v>
+        <v>73543300000000</v>
       </c>
       <c r="E107" t="n">
-        <v>72332000000000</v>
+        <v>73543300000000</v>
       </c>
       <c r="F107" t="n">
-        <v>72332000000000</v>
+        <v>73543300000000</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -3136,16 +3136,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>72913000000000</v>
+        <v>74254400000000</v>
       </c>
       <c r="D108" t="n">
-        <v>72913000000000</v>
+        <v>74254400000000</v>
       </c>
       <c r="E108" t="n">
-        <v>72913000000000</v>
+        <v>74254400000000</v>
       </c>
       <c r="F108" t="n">
-        <v>72913000000000</v>
+        <v>74254400000000</v>
       </c>
       <c r="G108" t="n">
         <v>0</v>
@@ -3161,16 +3161,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>73271000000000</v>
+        <v>74863700000000</v>
       </c>
       <c r="D109" t="n">
-        <v>73271000000000</v>
+        <v>74863700000000</v>
       </c>
       <c r="E109" t="n">
-        <v>73271000000000</v>
+        <v>74863700000000</v>
       </c>
       <c r="F109" t="n">
-        <v>73271000000000</v>
+        <v>74863700000000</v>
       </c>
       <c r="G109" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>75466000000000</v>
+        <v>77187500000000</v>
       </c>
       <c r="D110" t="n">
-        <v>75466000000000</v>
+        <v>77187500000000</v>
       </c>
       <c r="E110" t="n">
-        <v>75466000000000</v>
+        <v>77187500000000</v>
       </c>
       <c r="F110" t="n">
-        <v>75466000000000</v>
+        <v>77187500000000</v>
       </c>
       <c r="G110" t="n">
         <v>0</v>
@@ -3211,16 +3211,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>75779000000000</v>
+        <v>77336800000000</v>
       </c>
       <c r="D111" t="n">
-        <v>75779000000000</v>
+        <v>77336800000000</v>
       </c>
       <c r="E111" t="n">
-        <v>75779000000000</v>
+        <v>77336800000000</v>
       </c>
       <c r="F111" t="n">
-        <v>75779000000000</v>
+        <v>77336800000000</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
@@ -3236,16 +3236,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>77212000000000</v>
+        <v>78554700000000</v>
       </c>
       <c r="D112" t="n">
-        <v>77212000000000</v>
+        <v>78554700000000</v>
       </c>
       <c r="E112" t="n">
-        <v>77212000000000</v>
+        <v>78554700000000</v>
       </c>
       <c r="F112" t="n">
-        <v>77212000000000</v>
+        <v>78554700000000</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -3264,13 +3264,13 @@
         <v>78465000000000</v>
       </c>
       <c r="D113" t="n">
-        <v>78465000000000</v>
+        <v>80238400000000</v>
       </c>
       <c r="E113" t="n">
         <v>78465000000000</v>
       </c>
       <c r="F113" t="n">
-        <v>78465000000000</v>
+        <v>80238400000000</v>
       </c>
       <c r="G113" t="n">
         <v>0</v>
@@ -3286,16 +3286,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>82004000000000</v>
+        <v>83367600000000</v>
       </c>
       <c r="D114" t="n">
-        <v>82004000000000</v>
+        <v>83367600000000</v>
       </c>
       <c r="E114" t="n">
-        <v>82004000000000</v>
+        <v>83367600000000</v>
       </c>
       <c r="F114" t="n">
-        <v>82004000000000</v>
+        <v>83367600000000</v>
       </c>
       <c r="G114" t="n">
         <v>0</v>
@@ -3311,16 +3311,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>82594000000000</v>
+        <v>84980000000000</v>
       </c>
       <c r="D115" t="n">
-        <v>82594000000000</v>
+        <v>84980000000000</v>
       </c>
       <c r="E115" t="n">
-        <v>82594000000000</v>
+        <v>84980000000000</v>
       </c>
       <c r="F115" t="n">
-        <v>82594000000000</v>
+        <v>84980000000000</v>
       </c>
       <c r="G115" t="n">
         <v>0</v>
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>84175000000000</v>
+        <v>85218500000000</v>
       </c>
       <c r="D116" t="n">
-        <v>84175000000000</v>
+        <v>85218500000000</v>
       </c>
       <c r="E116" t="n">
-        <v>84175000000000</v>
+        <v>85218500000000</v>
       </c>
       <c r="F116" t="n">
-        <v>84175000000000</v>
+        <v>85218500000000</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -3361,16 +3361,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>83699000000000</v>
+        <v>84998400000000</v>
       </c>
       <c r="D117" t="n">
-        <v>83699000000000</v>
+        <v>84998400000000</v>
       </c>
       <c r="E117" t="n">
-        <v>83699000000000</v>
+        <v>84998400000000</v>
       </c>
       <c r="F117" t="n">
-        <v>83699000000000</v>
+        <v>84998400000000</v>
       </c>
       <c r="G117" t="n">
         <v>0</v>
@@ -3389,13 +3389,13 @@
         <v>82686000000000</v>
       </c>
       <c r="D118" t="n">
-        <v>82686000000000</v>
+        <v>83919500000000</v>
       </c>
       <c r="E118" t="n">
         <v>82686000000000</v>
       </c>
       <c r="F118" t="n">
-        <v>82686000000000</v>
+        <v>83919500000000</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
@@ -3411,16 +3411,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>84670000000000</v>
+        <v>85886100000000</v>
       </c>
       <c r="D119" t="n">
-        <v>84670000000000</v>
+        <v>85886100000000</v>
       </c>
       <c r="E119" t="n">
-        <v>84670000000000</v>
+        <v>85886100000000</v>
       </c>
       <c r="F119" t="n">
-        <v>84670000000000</v>
+        <v>85886100000000</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
@@ -3436,16 +3436,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>85125000000000</v>
+        <v>86592400000000</v>
       </c>
       <c r="D120" t="n">
-        <v>85125000000000</v>
+        <v>86592400000000</v>
       </c>
       <c r="E120" t="n">
-        <v>85125000000000</v>
+        <v>86592400000000</v>
       </c>
       <c r="F120" t="n">
-        <v>85125000000000</v>
+        <v>86592400000000</v>
       </c>
       <c r="G120" t="n">
         <v>0</v>
@@ -3464,13 +3464,13 @@
         <v>85289000000000</v>
       </c>
       <c r="D121" t="n">
-        <v>85289000000000</v>
+        <v>86959500000000</v>
       </c>
       <c r="E121" t="n">
         <v>85289000000000</v>
       </c>
       <c r="F121" t="n">
-        <v>85289000000000</v>
+        <v>86959500000000</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
@@ -3486,16 +3486,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>87679000000000</v>
+        <v>89512100000000</v>
       </c>
       <c r="D122" t="n">
-        <v>87679000000000</v>
+        <v>89512100000000</v>
       </c>
       <c r="E122" t="n">
-        <v>87679000000000</v>
+        <v>89512100000000</v>
       </c>
       <c r="F122" t="n">
-        <v>87679000000000</v>
+        <v>89512100000000</v>
       </c>
       <c r="G122" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>88523000000000</v>
+        <v>90436700000000</v>
       </c>
       <c r="D123" t="n">
-        <v>88523000000000</v>
+        <v>90436700000000</v>
       </c>
       <c r="E123" t="n">
-        <v>88523000000000</v>
+        <v>90436700000000</v>
       </c>
       <c r="F123" t="n">
-        <v>88523000000000</v>
+        <v>90436700000000</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -3536,16 +3536,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>86631000000000</v>
+        <v>88921900000000</v>
       </c>
       <c r="D124" t="n">
-        <v>86631000000000</v>
+        <v>88921900000000</v>
       </c>
       <c r="E124" t="n">
-        <v>86631000000000</v>
+        <v>88921900000000</v>
       </c>
       <c r="F124" t="n">
-        <v>86631000000000</v>
+        <v>88921900000000</v>
       </c>
       <c r="G124" t="n">
         <v>0</v>
@@ -3561,16 +3561,16 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>86822000000000</v>
+        <v>89146400000000</v>
       </c>
       <c r="D125" t="n">
-        <v>86822000000000</v>
+        <v>89146400000000</v>
       </c>
       <c r="E125" t="n">
-        <v>86822000000000</v>
+        <v>89146400000000</v>
       </c>
       <c r="F125" t="n">
-        <v>86822000000000</v>
+        <v>89146400000000</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -3586,16 +3586,16 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>87962000000000</v>
+        <v>90306400000000</v>
       </c>
       <c r="D126" t="n">
-        <v>87962000000000</v>
+        <v>90306400000000</v>
       </c>
       <c r="E126" t="n">
-        <v>87962000000000</v>
+        <v>90306400000000</v>
       </c>
       <c r="F126" t="n">
-        <v>87962000000000</v>
+        <v>90306400000000</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -3614,13 +3614,13 @@
         <v>86457000000000</v>
       </c>
       <c r="D127" t="n">
-        <v>86457000000000</v>
+        <v>88797200000000</v>
       </c>
       <c r="E127" t="n">
         <v>86457000000000</v>
       </c>
       <c r="F127" t="n">
-        <v>86457000000000</v>
+        <v>88797200000000</v>
       </c>
       <c r="G127" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>86583000000000</v>
+        <v>88852200000000</v>
       </c>
       <c r="D128" t="n">
-        <v>86583000000000</v>
+        <v>88852200000000</v>
       </c>
       <c r="E128" t="n">
-        <v>86583000000000</v>
+        <v>88852200000000</v>
       </c>
       <c r="F128" t="n">
-        <v>86583000000000</v>
+        <v>88852200000000</v>
       </c>
       <c r="G128" t="n">
         <v>0</v>
@@ -3661,16 +3661,16 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>87264000000000</v>
+        <v>88970400000000</v>
       </c>
       <c r="D129" t="n">
-        <v>87264000000000</v>
+        <v>88970400000000</v>
       </c>
       <c r="E129" t="n">
-        <v>87264000000000</v>
+        <v>88970400000000</v>
       </c>
       <c r="F129" t="n">
-        <v>87264000000000</v>
+        <v>88970400000000</v>
       </c>
       <c r="G129" t="n">
         <v>0</v>
@@ -3689,13 +3689,13 @@
         <v>86468000000000</v>
       </c>
       <c r="D130" t="n">
+        <v>88497600000000</v>
+      </c>
+      <c r="E130" t="n">
         <v>86468000000000</v>
       </c>
-      <c r="E130" t="n">
-        <v>86412000000000</v>
-      </c>
       <c r="F130" t="n">
-        <v>86412000000000</v>
+        <v>88497600000000</v>
       </c>
       <c r="G130" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>87462000000000</v>
+        <v>89683800000000</v>
       </c>
       <c r="D131" t="n">
-        <v>87462000000000</v>
+        <v>89683800000000</v>
       </c>
       <c r="E131" t="n">
-        <v>87462000000000</v>
+        <v>89683800000000</v>
       </c>
       <c r="F131" t="n">
-        <v>87462000000000</v>
+        <v>89683800000000</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -3736,16 +3736,16 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>88974000000000</v>
+        <v>90633300000000</v>
       </c>
       <c r="D132" t="n">
-        <v>88974000000000</v>
+        <v>90633300000000</v>
       </c>
       <c r="E132" t="n">
-        <v>88974000000000</v>
+        <v>90633300000000</v>
       </c>
       <c r="F132" t="n">
-        <v>88974000000000</v>
+        <v>90633300000000</v>
       </c>
       <c r="G132" t="n">
         <v>0</v>
@@ -3761,16 +3761,16 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>88025000000000</v>
+        <v>89370900000000</v>
       </c>
       <c r="D133" t="n">
-        <v>88025000000000</v>
+        <v>89370900000000</v>
       </c>
       <c r="E133" t="n">
-        <v>88025000000000</v>
+        <v>89370900000000</v>
       </c>
       <c r="F133" t="n">
-        <v>88025000000000</v>
+        <v>89370900000000</v>
       </c>
       <c r="G133" t="n">
         <v>0</v>
@@ -3786,16 +3786,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>90728000000000</v>
+        <v>92988900000000</v>
       </c>
       <c r="D134" t="n">
-        <v>90728000000000</v>
+        <v>92988900000000</v>
       </c>
       <c r="E134" t="n">
-        <v>90728000000000</v>
+        <v>92988900000000</v>
       </c>
       <c r="F134" t="n">
-        <v>90728000000000</v>
+        <v>92988900000000</v>
       </c>
       <c r="G134" t="n">
         <v>0</v>
@@ -3811,16 +3811,16 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>87062000000000</v>
+        <v>88444200000000</v>
       </c>
       <c r="D135" t="n">
-        <v>87062000000000</v>
+        <v>88444200000000</v>
       </c>
       <c r="E135" t="n">
-        <v>87062000000000</v>
+        <v>88444200000000</v>
       </c>
       <c r="F135" t="n">
-        <v>87062000000000</v>
+        <v>88444200000000</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -3836,16 +3836,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>85963000000000</v>
+        <v>88621900000000</v>
       </c>
       <c r="D136" t="n">
-        <v>85963000000000</v>
+        <v>88621900000000</v>
       </c>
       <c r="E136" t="n">
-        <v>85963000000000</v>
+        <v>88621900000000</v>
       </c>
       <c r="F136" t="n">
-        <v>85963000000000</v>
+        <v>88621900000000</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -3861,16 +3861,16 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>88944000000000</v>
+        <v>91248100000000</v>
       </c>
       <c r="D137" t="n">
-        <v>88944000000000</v>
+        <v>91248100000000</v>
       </c>
       <c r="E137" t="n">
-        <v>88944000000000</v>
+        <v>91248100000000</v>
       </c>
       <c r="F137" t="n">
-        <v>88944000000000</v>
+        <v>91248100000000</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -3886,16 +3886,16 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>89481000000000</v>
+        <v>91762000000000</v>
       </c>
       <c r="D138" t="n">
-        <v>89481000000000</v>
+        <v>91762000000000</v>
       </c>
       <c r="E138" t="n">
-        <v>89481000000000</v>
+        <v>91762000000000</v>
       </c>
       <c r="F138" t="n">
-        <v>89481000000000</v>
+        <v>91762000000000</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -3911,16 +3911,16 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>90621000000000</v>
+        <v>92930000000000</v>
       </c>
       <c r="D139" t="n">
-        <v>90621000000000</v>
+        <v>92930000000000</v>
       </c>
       <c r="E139" t="n">
-        <v>90621000000000</v>
+        <v>92930000000000</v>
       </c>
       <c r="F139" t="n">
-        <v>90621000000000</v>
+        <v>92930000000000</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
@@ -3936,16 +3936,16 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>89630000000000</v>
+        <v>91422000000000</v>
       </c>
       <c r="D140" t="n">
-        <v>89630000000000</v>
+        <v>91422000000000</v>
       </c>
       <c r="E140" t="n">
-        <v>89630000000000</v>
+        <v>91422000000000</v>
       </c>
       <c r="F140" t="n">
-        <v>89630000000000</v>
+        <v>91422000000000</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -3961,16 +3961,16 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>87854000000000</v>
+        <v>89513400000000</v>
       </c>
       <c r="D141" t="n">
-        <v>87854000000000</v>
+        <v>89513400000000</v>
       </c>
       <c r="E141" t="n">
-        <v>87854000000000</v>
+        <v>89513400000000</v>
       </c>
       <c r="F141" t="n">
-        <v>87854000000000</v>
+        <v>89513400000000</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -3986,16 +3986,16 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>85673000000000</v>
+        <v>87471100000000</v>
       </c>
       <c r="D142" t="n">
-        <v>85673000000000</v>
+        <v>87471100000000</v>
       </c>
       <c r="E142" t="n">
-        <v>85673000000000</v>
+        <v>87471100000000</v>
       </c>
       <c r="F142" t="n">
-        <v>85673000000000</v>
+        <v>87471100000000</v>
       </c>
       <c r="G142" t="n">
         <v>0</v>
@@ -4011,16 +4011,16 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>85176000000000</v>
+        <v>87179100000000</v>
       </c>
       <c r="D143" t="n">
-        <v>85176000000000</v>
+        <v>87179100000000</v>
       </c>
       <c r="E143" t="n">
-        <v>85176000000000</v>
+        <v>87179100000000</v>
       </c>
       <c r="F143" t="n">
-        <v>85176000000000</v>
+        <v>87179100000000</v>
       </c>
       <c r="G143" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>84752000000000</v>
+        <v>86752700000000</v>
       </c>
       <c r="D144" t="n">
-        <v>84752000000000</v>
+        <v>86752700000000</v>
       </c>
       <c r="E144" t="n">
-        <v>84752000000000</v>
+        <v>86752700000000</v>
       </c>
       <c r="F144" t="n">
-        <v>84752000000000</v>
+        <v>86752700000000</v>
       </c>
       <c r="G144" t="n">
         <v>0</v>
@@ -4061,16 +4061,16 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>82936000000000</v>
+        <v>85292700000000</v>
       </c>
       <c r="D145" t="n">
-        <v>82936000000000</v>
+        <v>85292700000000</v>
       </c>
       <c r="E145" t="n">
-        <v>82936000000000</v>
+        <v>85292700000000</v>
       </c>
       <c r="F145" t="n">
-        <v>82936000000000</v>
+        <v>85292700000000</v>
       </c>
       <c r="G145" t="n">
         <v>0</v>
@@ -4086,16 +4086,16 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>82595000000000</v>
+        <v>84527300000000</v>
       </c>
       <c r="D146" t="n">
-        <v>82595000000000</v>
+        <v>84527300000000</v>
       </c>
       <c r="E146" t="n">
-        <v>82595000000000</v>
+        <v>84527300000000</v>
       </c>
       <c r="F146" t="n">
-        <v>82595000000000</v>
+        <v>84527300000000</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -4111,16 +4111,16 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>82655000000000</v>
+        <v>84418200000000</v>
       </c>
       <c r="D147" t="n">
-        <v>82655000000000</v>
+        <v>84418200000000</v>
       </c>
       <c r="E147" t="n">
-        <v>82655000000000</v>
+        <v>84418200000000</v>
       </c>
       <c r="F147" t="n">
-        <v>82655000000000</v>
+        <v>84418200000000</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
@@ -4136,16 +4136,16 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>83792000000000</v>
+        <v>86573300000000</v>
       </c>
       <c r="D148" t="n">
-        <v>83792000000000</v>
+        <v>86573300000000</v>
       </c>
       <c r="E148" t="n">
-        <v>83792000000000</v>
+        <v>86573300000000</v>
       </c>
       <c r="F148" t="n">
-        <v>83792000000000</v>
+        <v>86573300000000</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
@@ -4161,16 +4161,16 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>81458000000000</v>
+        <v>87960800000000</v>
       </c>
       <c r="D149" t="n">
-        <v>81458000000000</v>
+        <v>87960800000000</v>
       </c>
       <c r="E149" t="n">
-        <v>81458000000000</v>
+        <v>87960800000000</v>
       </c>
       <c r="F149" t="n">
-        <v>81458000000000</v>
+        <v>87960800000000</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -4186,16 +4186,16 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>86017000000000</v>
+        <v>89080000000000</v>
       </c>
       <c r="D150" t="n">
-        <v>86017000000000</v>
+        <v>89080000000000</v>
       </c>
       <c r="E150" t="n">
-        <v>86017000000000</v>
+        <v>89080000000000</v>
       </c>
       <c r="F150" t="n">
-        <v>86017000000000</v>
+        <v>89080000000000</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -4211,16 +4211,16 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>87316000000000</v>
+        <v>89342300000000</v>
       </c>
       <c r="D151" t="n">
-        <v>87316000000000</v>
+        <v>89342300000000</v>
       </c>
       <c r="E151" t="n">
-        <v>87316000000000</v>
+        <v>89342300000000</v>
       </c>
       <c r="F151" t="n">
-        <v>87316000000000</v>
+        <v>89342300000000</v>
       </c>
       <c r="G151" t="n">
         <v>0</v>
@@ -4236,16 +4236,16 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>86692000000000</v>
+        <v>88901100000000</v>
       </c>
       <c r="D152" t="n">
-        <v>86692000000000</v>
+        <v>88901100000000</v>
       </c>
       <c r="E152" t="n">
-        <v>86692000000000</v>
+        <v>88901100000000</v>
       </c>
       <c r="F152" t="n">
-        <v>86692000000000</v>
+        <v>88901100000000</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -4261,16 +4261,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>87572000000000</v>
+        <v>89925300000000</v>
       </c>
       <c r="D153" t="n">
-        <v>87572000000000</v>
+        <v>89925300000000</v>
       </c>
       <c r="E153" t="n">
-        <v>87572000000000</v>
+        <v>89925300000000</v>
       </c>
       <c r="F153" t="n">
-        <v>87572000000000</v>
+        <v>89925300000000</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -4286,16 +4286,16 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>88035000000000</v>
+        <v>90540600000000</v>
       </c>
       <c r="D154" t="n">
-        <v>88035000000000</v>
+        <v>90540600000000</v>
       </c>
       <c r="E154" t="n">
-        <v>88035000000000</v>
+        <v>90540600000000</v>
       </c>
       <c r="F154" t="n">
-        <v>88035000000000</v>
+        <v>90540600000000</v>
       </c>
       <c r="G154" t="n">
         <v>0</v>
@@ -4311,16 +4311,16 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>88395000000000</v>
+        <v>91225700000000</v>
       </c>
       <c r="D155" t="n">
-        <v>88395000000000</v>
+        <v>91225700000000</v>
       </c>
       <c r="E155" t="n">
-        <v>88395000000000</v>
+        <v>91225700000000</v>
       </c>
       <c r="F155" t="n">
-        <v>88395000000000</v>
+        <v>91225700000000</v>
       </c>
       <c r="G155" t="n">
         <v>0</v>
@@ -4336,16 +4336,16 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>88048000000000</v>
+        <v>90685600000000</v>
       </c>
       <c r="D156" t="n">
-        <v>88048000000000</v>
+        <v>90685600000000</v>
       </c>
       <c r="E156" t="n">
-        <v>88048000000000</v>
+        <v>90685600000000</v>
       </c>
       <c r="F156" t="n">
-        <v>88048000000000</v>
+        <v>90685600000000</v>
       </c>
       <c r="G156" t="n">
         <v>0</v>
@@ -4361,16 +4361,16 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>87267000000000</v>
+        <v>90106300000000</v>
       </c>
       <c r="D157" t="n">
-        <v>87267000000000</v>
+        <v>90106300000000</v>
       </c>
       <c r="E157" t="n">
-        <v>87267000000000</v>
+        <v>90106300000000</v>
       </c>
       <c r="F157" t="n">
-        <v>87267000000000</v>
+        <v>90106300000000</v>
       </c>
       <c r="G157" t="n">
         <v>0</v>
@@ -4386,16 +4386,16 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>88182000000000</v>
+        <v>90466400000000</v>
       </c>
       <c r="D158" t="n">
-        <v>88182000000000</v>
+        <v>90466400000000</v>
       </c>
       <c r="E158" t="n">
-        <v>88182000000000</v>
+        <v>90466400000000</v>
       </c>
       <c r="F158" t="n">
-        <v>88182000000000</v>
+        <v>90466400000000</v>
       </c>
       <c r="G158" t="n">
         <v>0</v>
@@ -4411,16 +4411,16 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>88539000000000</v>
+        <v>90454100000000</v>
       </c>
       <c r="D159" t="n">
-        <v>88539000000000</v>
+        <v>90454100000000</v>
       </c>
       <c r="E159" t="n">
-        <v>88539000000000</v>
+        <v>90454100000000</v>
       </c>
       <c r="F159" t="n">
-        <v>88539000000000</v>
+        <v>90454100000000</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -4436,16 +4436,16 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>88044000000000</v>
+        <v>90359100000000</v>
       </c>
       <c r="D160" t="n">
-        <v>88044000000000</v>
+        <v>90359100000000</v>
       </c>
       <c r="E160" t="n">
-        <v>88044000000000</v>
+        <v>90359100000000</v>
       </c>
       <c r="F160" t="n">
-        <v>88044000000000</v>
+        <v>90359100000000</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -4461,16 +4461,16 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>87949000000000</v>
+        <v>90180100000000</v>
       </c>
       <c r="D161" t="n">
-        <v>87949000000000</v>
+        <v>90180100000000</v>
       </c>
       <c r="E161" t="n">
-        <v>87949000000000</v>
+        <v>90180100000000</v>
       </c>
       <c r="F161" t="n">
-        <v>87949000000000</v>
+        <v>90180100000000</v>
       </c>
       <c r="G161" t="n">
         <v>0</v>
@@ -4486,16 +4486,16 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>86675600000000</v>
+        <v>88855300000000</v>
       </c>
       <c r="D162" t="n">
-        <v>86675600000000</v>
+        <v>88855300000000</v>
       </c>
       <c r="E162" t="n">
-        <v>86675600000000</v>
+        <v>88855300000000</v>
       </c>
       <c r="F162" t="n">
-        <v>86675600000000</v>
+        <v>88855300000000</v>
       </c>
       <c r="G162" t="n">
         <v>0</v>
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>87352000000000</v>
+        <v>89550600000000</v>
       </c>
       <c r="D163" t="n">
-        <v>87352000000000</v>
+        <v>89550600000000</v>
       </c>
       <c r="E163" t="n">
-        <v>87352000000000</v>
+        <v>89550600000000</v>
       </c>
       <c r="F163" t="n">
-        <v>87352000000000</v>
+        <v>89550600000000</v>
       </c>
       <c r="G163" t="n">
         <v>0</v>
@@ -4536,16 +4536,16 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>87548000000000</v>
+        <v>90045300000000</v>
       </c>
       <c r="D164" t="n">
-        <v>87548000000000</v>
+        <v>90045300000000</v>
       </c>
       <c r="E164" t="n">
-        <v>87548000000000</v>
+        <v>90045300000000</v>
       </c>
       <c r="F164" t="n">
-        <v>87548000000000</v>
+        <v>90045300000000</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -4561,16 +4561,16 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>88618000000000</v>
+        <v>91205200000000</v>
       </c>
       <c r="D165" t="n">
-        <v>88618000000000</v>
+        <v>91205200000000</v>
       </c>
       <c r="E165" t="n">
-        <v>88618000000000</v>
+        <v>91205200000000</v>
       </c>
       <c r="F165" t="n">
-        <v>88618000000000</v>
+        <v>91205200000000</v>
       </c>
       <c r="G165" t="n">
         <v>0</v>
@@ -4586,16 +4586,16 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>88150000000000</v>
+        <v>90812000000000</v>
       </c>
       <c r="D166" t="n">
-        <v>88150000000000</v>
+        <v>90812000000000</v>
       </c>
       <c r="E166" t="n">
-        <v>88150000000000</v>
+        <v>90812000000000</v>
       </c>
       <c r="F166" t="n">
-        <v>88150000000000</v>
+        <v>90812000000000</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -4611,16 +4611,16 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>87816000000000</v>
+        <v>89870600000000</v>
       </c>
       <c r="D167" t="n">
-        <v>87816000000000</v>
+        <v>89870600000000</v>
       </c>
       <c r="E167" t="n">
-        <v>87816000000000</v>
+        <v>89870600000000</v>
       </c>
       <c r="F167" t="n">
-        <v>87816000000000</v>
+        <v>89870600000000</v>
       </c>
       <c r="G167" t="n">
         <v>0</v>
@@ -4636,16 +4636,16 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>87764000000000</v>
+        <v>89904900000000</v>
       </c>
       <c r="D168" t="n">
-        <v>87764000000000</v>
+        <v>89904900000000</v>
       </c>
       <c r="E168" t="n">
-        <v>87764000000000</v>
+        <v>89904900000000</v>
       </c>
       <c r="F168" t="n">
-        <v>87764000000000</v>
+        <v>89904900000000</v>
       </c>
       <c r="G168" t="n">
         <v>0</v>
@@ -4661,16 +4661,16 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>87962000000000</v>
+        <v>91129900000000</v>
       </c>
       <c r="D169" t="n">
-        <v>87962000000000</v>
+        <v>91129900000000</v>
       </c>
       <c r="E169" t="n">
-        <v>87962000000000</v>
+        <v>91129900000000</v>
       </c>
       <c r="F169" t="n">
-        <v>87962000000000</v>
+        <v>91129900000000</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -4686,16 +4686,16 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>89456000000000</v>
+        <v>92857000000000</v>
       </c>
       <c r="D170" t="n">
-        <v>89456000000000</v>
+        <v>92857000000000</v>
       </c>
       <c r="E170" t="n">
-        <v>89456000000000</v>
+        <v>92857000000000</v>
       </c>
       <c r="F170" t="n">
-        <v>89456000000000</v>
+        <v>92857000000000</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -4711,16 +4711,16 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>88450000000000</v>
+        <v>91625200000000</v>
       </c>
       <c r="D171" t="n">
-        <v>88450000000000</v>
+        <v>91625200000000</v>
       </c>
       <c r="E171" t="n">
-        <v>88450000000000</v>
+        <v>91625200000000</v>
       </c>
       <c r="F171" t="n">
-        <v>88450000000000</v>
+        <v>91625200000000</v>
       </c>
       <c r="G171" t="n">
         <v>0</v>
@@ -4736,16 +4736,16 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>87621000000000</v>
+        <v>90831200000000</v>
       </c>
       <c r="D172" t="n">
-        <v>87621000000000</v>
+        <v>90831200000000</v>
       </c>
       <c r="E172" t="n">
-        <v>87621000000000</v>
+        <v>90831200000000</v>
       </c>
       <c r="F172" t="n">
-        <v>87621000000000</v>
+        <v>90831200000000</v>
       </c>
       <c r="G172" t="n">
         <v>0</v>
@@ -4761,16 +4761,16 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>86486000000000</v>
+        <v>89517300000000</v>
       </c>
       <c r="D173" t="n">
-        <v>86486000000000</v>
+        <v>89517300000000</v>
       </c>
       <c r="E173" t="n">
-        <v>86486000000000</v>
+        <v>89517300000000</v>
       </c>
       <c r="F173" t="n">
-        <v>86486000000000</v>
+        <v>89517300000000</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -4786,16 +4786,16 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>86622000000000</v>
+        <v>89802800000000</v>
       </c>
       <c r="D174" t="n">
-        <v>86622000000000</v>
+        <v>89802800000000</v>
       </c>
       <c r="E174" t="n">
-        <v>86622000000000</v>
+        <v>89802800000000</v>
       </c>
       <c r="F174" t="n">
-        <v>86622000000000</v>
+        <v>89802800000000</v>
       </c>
       <c r="G174" t="n">
         <v>0</v>
@@ -4811,16 +4811,16 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>86950000000000</v>
+        <v>88948000000000</v>
       </c>
       <c r="D175" t="n">
-        <v>86950000000000</v>
+        <v>88948000000000</v>
       </c>
       <c r="E175" t="n">
-        <v>86950000000000</v>
+        <v>88948000000000</v>
       </c>
       <c r="F175" t="n">
-        <v>86950000000000</v>
+        <v>88948000000000</v>
       </c>
       <c r="G175" t="n">
         <v>0</v>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>88363000000000</v>
+        <v>90973300000000</v>
       </c>
       <c r="D176" t="n">
-        <v>88363000000000</v>
+        <v>90973300000000</v>
       </c>
       <c r="E176" t="n">
-        <v>88363000000000</v>
+        <v>90973300000000</v>
       </c>
       <c r="F176" t="n">
-        <v>88363000000000</v>
+        <v>90973300000000</v>
       </c>
       <c r="G176" t="n">
         <v>0</v>
@@ -4861,16 +4861,16 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>89332000000000</v>
+        <v>90927900000000</v>
       </c>
       <c r="D177" t="n">
-        <v>89332000000000</v>
+        <v>90927900000000</v>
       </c>
       <c r="E177" t="n">
-        <v>89332000000000</v>
+        <v>90927900000000</v>
       </c>
       <c r="F177" t="n">
-        <v>89332000000000</v>
+        <v>90927900000000</v>
       </c>
       <c r="G177" t="n">
         <v>0</v>
@@ -4886,16 +4886,16 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>89577000000000</v>
+        <v>91487600000000</v>
       </c>
       <c r="D178" t="n">
-        <v>89577000000000</v>
+        <v>91487600000000</v>
       </c>
       <c r="E178" t="n">
-        <v>89577000000000</v>
+        <v>91487600000000</v>
       </c>
       <c r="F178" t="n">
-        <v>89577000000000</v>
+        <v>91487600000000</v>
       </c>
       <c r="G178" t="n">
         <v>0</v>
@@ -4911,16 +4911,16 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>92104000000000</v>
+        <v>93170000000000</v>
       </c>
       <c r="D179" t="n">
-        <v>92104000000000</v>
+        <v>93170000000000</v>
       </c>
       <c r="E179" t="n">
-        <v>92104000000000</v>
+        <v>93170000000000</v>
       </c>
       <c r="F179" t="n">
-        <v>92104000000000</v>
+        <v>93170000000000</v>
       </c>
       <c r="G179" t="n">
         <v>0</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>91513000000000</v>
+        <v>92856900000000</v>
       </c>
       <c r="D180" t="n">
-        <v>91513000000000</v>
+        <v>92856900000000</v>
       </c>
       <c r="E180" t="n">
-        <v>91513000000000</v>
+        <v>92856900000000</v>
       </c>
       <c r="F180" t="n">
-        <v>91513000000000</v>
+        <v>92856900000000</v>
       </c>
       <c r="G180" t="n">
         <v>0</v>
@@ -4961,16 +4961,16 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>91989000000000</v>
+        <v>93702100000000</v>
       </c>
       <c r="D181" t="n">
-        <v>91989000000000</v>
+        <v>93702100000000</v>
       </c>
       <c r="E181" t="n">
-        <v>91989000000000</v>
+        <v>93702100000000</v>
       </c>
       <c r="F181" t="n">
-        <v>91989000000000</v>
+        <v>93702100000000</v>
       </c>
       <c r="G181" t="n">
         <v>0</v>
@@ -4986,16 +4986,16 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>93699000000000</v>
+        <v>95390700000000</v>
       </c>
       <c r="D182" t="n">
-        <v>93699000000000</v>
+        <v>95390700000000</v>
       </c>
       <c r="E182" t="n">
-        <v>93699000000000</v>
+        <v>95390700000000</v>
       </c>
       <c r="F182" t="n">
-        <v>93699000000000</v>
+        <v>95390700000000</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
@@ -5011,16 +5011,16 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>91691000000000</v>
+        <v>94253000000000</v>
       </c>
       <c r="D183" t="n">
-        <v>91691000000000</v>
+        <v>94253000000000</v>
       </c>
       <c r="E183" t="n">
-        <v>91691000000000</v>
+        <v>94253000000000</v>
       </c>
       <c r="F183" t="n">
-        <v>91691000000000</v>
+        <v>94253000000000</v>
       </c>
       <c r="G183" t="n">
         <v>0</v>
@@ -5036,16 +5036,16 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>91724000000000</v>
+        <v>93722400000000</v>
       </c>
       <c r="D184" t="n">
-        <v>91724000000000</v>
+        <v>93722400000000</v>
       </c>
       <c r="E184" t="n">
-        <v>91724000000000</v>
+        <v>93722400000000</v>
       </c>
       <c r="F184" t="n">
-        <v>91724000000000</v>
+        <v>93722400000000</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
@@ -5061,16 +5061,16 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>94851000000000</v>
+        <v>95621700000000</v>
       </c>
       <c r="D185" t="n">
-        <v>94851000000000</v>
+        <v>95621700000000</v>
       </c>
       <c r="E185" t="n">
-        <v>94851000000000</v>
+        <v>95621700000000</v>
       </c>
       <c r="F185" t="n">
-        <v>94851000000000</v>
+        <v>95621700000000</v>
       </c>
       <c r="G185" t="n">
         <v>0</v>
@@ -5086,16 +5086,16 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>97110000000000</v>
+        <v>97104100000000</v>
       </c>
       <c r="D186" t="n">
-        <v>97110000000000</v>
+        <v>97104100000000</v>
       </c>
       <c r="E186" t="n">
-        <v>97110000000000</v>
+        <v>97104100000000</v>
       </c>
       <c r="F186" t="n">
-        <v>97110000000000</v>
+        <v>97104100000000</v>
       </c>
       <c r="G186" t="n">
         <v>0</v>
@@ -5111,16 +5111,16 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>96087000000000</v>
+        <v>96043100000000</v>
       </c>
       <c r="D187" t="n">
-        <v>96087000000000</v>
+        <v>96043100000000</v>
       </c>
       <c r="E187" t="n">
-        <v>96087000000000</v>
+        <v>96043100000000</v>
       </c>
       <c r="F187" t="n">
-        <v>96087000000000</v>
+        <v>96043100000000</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>98387000000000</v>
+        <v>98466300000000</v>
       </c>
       <c r="D188" t="n">
-        <v>98387000000000</v>
+        <v>98466300000000</v>
       </c>
       <c r="E188" t="n">
-        <v>98387000000000</v>
+        <v>98466300000000</v>
       </c>
       <c r="F188" t="n">
-        <v>98387000000000</v>
+        <v>98466300000000</v>
       </c>
       <c r="G188" t="n">
         <v>0</v>
@@ -5361,16 +5361,16 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>108214000000000</v>
+        <v>108215000000000</v>
       </c>
       <c r="D197" t="n">
-        <v>108214000000000</v>
+        <v>108215000000000</v>
       </c>
       <c r="E197" t="n">
-        <v>108214000000000</v>
+        <v>108215000000000</v>
       </c>
       <c r="F197" t="n">
-        <v>108214000000000</v>
+        <v>108215000000000</v>
       </c>
       <c r="G197" t="n">
         <v>0</v>
@@ -5511,16 +5511,16 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>112507000000000</v>
+        <v>112498000000000</v>
       </c>
       <c r="D203" t="n">
-        <v>112507000000000</v>
+        <v>112498000000000</v>
       </c>
       <c r="E203" t="n">
-        <v>112507000000000</v>
+        <v>112498000000000</v>
       </c>
       <c r="F203" t="n">
-        <v>112507000000000</v>
+        <v>112498000000000</v>
       </c>
       <c r="G203" t="n">
         <v>0</v>
@@ -5561,16 +5561,16 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>113728000000000</v>
+        <v>113740000000000</v>
       </c>
       <c r="D205" t="n">
-        <v>113728000000000</v>
+        <v>113740000000000</v>
       </c>
       <c r="E205" t="n">
-        <v>113728000000000</v>
+        <v>113740000000000</v>
       </c>
       <c r="F205" t="n">
-        <v>113728000000000</v>
+        <v>113740000000000</v>
       </c>
       <c r="G205" t="n">
         <v>0</v>
@@ -5586,16 +5586,16 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>119743000000000</v>
+        <v>119906000000000</v>
       </c>
       <c r="D206" t="n">
-        <v>119743000000000</v>
+        <v>119906000000000</v>
       </c>
       <c r="E206" t="n">
-        <v>119743000000000</v>
+        <v>119906000000000</v>
       </c>
       <c r="F206" t="n">
-        <v>119743000000000</v>
+        <v>119906000000000</v>
       </c>
       <c r="G206" t="n">
         <v>0</v>
@@ -5611,16 +5611,16 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>122458000000000</v>
+        <v>122037000000000</v>
       </c>
       <c r="D207" t="n">
-        <v>122458000000000</v>
+        <v>122037000000000</v>
       </c>
       <c r="E207" t="n">
-        <v>122458000000000</v>
+        <v>122037000000000</v>
       </c>
       <c r="F207" t="n">
-        <v>122458000000000</v>
+        <v>122037000000000</v>
       </c>
       <c r="G207" t="n">
         <v>0</v>
@@ -5636,16 +5636,16 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>125222000000000</v>
+        <v>125762000000000</v>
       </c>
       <c r="D208" t="n">
-        <v>125222000000000</v>
+        <v>125762000000000</v>
       </c>
       <c r="E208" t="n">
-        <v>125222000000000</v>
+        <v>125762000000000</v>
       </c>
       <c r="F208" t="n">
-        <v>125222000000000</v>
+        <v>125762000000000</v>
       </c>
       <c r="G208" t="n">
         <v>0</v>
@@ -5661,16 +5661,16 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>128708000000000</v>
+        <v>128693000000000</v>
       </c>
       <c r="D209" t="n">
-        <v>128708000000000</v>
+        <v>128693000000000</v>
       </c>
       <c r="E209" t="n">
-        <v>128708000000000</v>
+        <v>128693000000000</v>
       </c>
       <c r="F209" t="n">
-        <v>128708000000000</v>
+        <v>128693000000000</v>
       </c>
       <c r="G209" t="n">
         <v>0</v>
@@ -5686,16 +5686,16 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>128780000000000</v>
+        <v>129860000000000</v>
       </c>
       <c r="D210" t="n">
-        <v>128780000000000</v>
+        <v>129860000000000</v>
       </c>
       <c r="E210" t="n">
-        <v>128780000000000</v>
+        <v>129860000000000</v>
       </c>
       <c r="F210" t="n">
-        <v>128780000000000</v>
+        <v>129860000000000</v>
       </c>
       <c r="G210" t="n">
         <v>0</v>
@@ -5711,16 +5711,16 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>133213000000000</v>
+        <v>132950000000000</v>
       </c>
       <c r="D211" t="n">
-        <v>133213000000000</v>
+        <v>132950000000000</v>
       </c>
       <c r="E211" t="n">
-        <v>133213000000000</v>
+        <v>132950000000000</v>
       </c>
       <c r="F211" t="n">
-        <v>133213000000000</v>
+        <v>132950000000000</v>
       </c>
       <c r="G211" t="n">
         <v>0</v>
@@ -5736,16 +5736,16 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>133263000000000</v>
+        <v>133546000000000</v>
       </c>
       <c r="D212" t="n">
-        <v>133263000000000</v>
+        <v>133546000000000</v>
       </c>
       <c r="E212" t="n">
-        <v>133263000000000</v>
+        <v>133546000000000</v>
       </c>
       <c r="F212" t="n">
-        <v>133263000000000</v>
+        <v>133546000000000</v>
       </c>
       <c r="G212" t="n">
         <v>0</v>
@@ -5761,16 +5761,16 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>134876000000000</v>
+        <v>134911000000000</v>
       </c>
       <c r="D213" t="n">
-        <v>134876000000000</v>
+        <v>134911000000000</v>
       </c>
       <c r="E213" t="n">
-        <v>134876000000000</v>
+        <v>134911000000000</v>
       </c>
       <c r="F213" t="n">
-        <v>134876000000000</v>
+        <v>134911000000000</v>
       </c>
       <c r="G213" t="n">
         <v>0</v>
@@ -5786,16 +5786,16 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>135577000000000</v>
+        <v>135604000000000</v>
       </c>
       <c r="D214" t="n">
-        <v>135577000000000</v>
+        <v>135604000000000</v>
       </c>
       <c r="E214" t="n">
-        <v>135577000000000</v>
+        <v>135604000000000</v>
       </c>
       <c r="F214" t="n">
-        <v>135577000000000</v>
+        <v>135604000000000</v>
       </c>
       <c r="G214" t="n">
         <v>0</v>
@@ -5811,16 +5811,16 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>133901000000000</v>
+        <v>135101000000000</v>
       </c>
       <c r="D215" t="n">
-        <v>133901000000000</v>
+        <v>135101000000000</v>
       </c>
       <c r="E215" t="n">
-        <v>133901000000000</v>
+        <v>135101000000000</v>
       </c>
       <c r="F215" t="n">
-        <v>133901000000000</v>
+        <v>135101000000000</v>
       </c>
       <c r="G215" t="n">
         <v>0</v>
@@ -5861,16 +5861,16 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>135595000000000</v>
+        <v>136915000000000</v>
       </c>
       <c r="D217" t="n">
-        <v>135595000000000</v>
+        <v>136915000000000</v>
       </c>
       <c r="E217" t="n">
-        <v>135595000000000</v>
+        <v>136915000000000</v>
       </c>
       <c r="F217" t="n">
-        <v>135595000000000</v>
+        <v>136915000000000</v>
       </c>
       <c r="G217" t="n">
         <v>0</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>139818000000000</v>
+        <v>139886000000000</v>
       </c>
       <c r="D218" t="n">
-        <v>139818000000000</v>
+        <v>139886000000000</v>
       </c>
       <c r="E218" t="n">
-        <v>139818000000000</v>
+        <v>139886000000000</v>
       </c>
       <c r="F218" t="n">
-        <v>139818000000000</v>
+        <v>139886000000000</v>
       </c>
       <c r="G218" t="n">
         <v>0</v>
@@ -5911,16 +5911,16 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>139642000000000</v>
+        <v>139567000000000</v>
       </c>
       <c r="D219" t="n">
-        <v>139642000000000</v>
+        <v>139567000000000</v>
       </c>
       <c r="E219" t="n">
-        <v>139642000000000</v>
+        <v>139567000000000</v>
       </c>
       <c r="F219" t="n">
-        <v>139642000000000</v>
+        <v>139567000000000</v>
       </c>
       <c r="G219" t="n">
         <v>0</v>
@@ -5936,16 +5936,16 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>141917000000000</v>
+        <v>141848000000000</v>
       </c>
       <c r="D220" t="n">
-        <v>141917000000000</v>
+        <v>141848000000000</v>
       </c>
       <c r="E220" t="n">
-        <v>141917000000000</v>
+        <v>141848000000000</v>
       </c>
       <c r="F220" t="n">
-        <v>141917000000000</v>
+        <v>141848000000000</v>
       </c>
       <c r="G220" t="n">
         <v>0</v>
@@ -5961,16 +5961,16 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>143119000000000</v>
+        <v>143176000000000</v>
       </c>
       <c r="D221" t="n">
-        <v>143119000000000</v>
+        <v>143176000000000</v>
       </c>
       <c r="E221" t="n">
-        <v>143119000000000</v>
+        <v>143176000000000</v>
       </c>
       <c r="F221" t="n">
-        <v>143119000000000</v>
+        <v>143176000000000</v>
       </c>
       <c r="G221" t="n">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>146300000000000</v>
+        <v>146019000000000</v>
       </c>
       <c r="D222" t="n">
-        <v>146300000000000</v>
+        <v>146019000000000</v>
       </c>
       <c r="E222" t="n">
-        <v>146300000000000</v>
+        <v>146019000000000</v>
       </c>
       <c r="F222" t="n">
-        <v>146300000000000</v>
+        <v>146019000000000</v>
       </c>
       <c r="G222" t="n">
         <v>0</v>
@@ -6011,16 +6011,16 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>146290000000000</v>
+        <v>146009000000000</v>
       </c>
       <c r="D223" t="n">
-        <v>146290000000000</v>
+        <v>146009000000000</v>
       </c>
       <c r="E223" t="n">
-        <v>146290000000000</v>
+        <v>146009000000000</v>
       </c>
       <c r="F223" t="n">
-        <v>146290000000000</v>
+        <v>146009000000000</v>
       </c>
       <c r="G223" t="n">
         <v>0</v>
@@ -6086,16 +6086,16 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>153979000000000</v>
+        <v>153983000000000</v>
       </c>
       <c r="D226" t="n">
-        <v>153979000000000</v>
+        <v>153983000000000</v>
       </c>
       <c r="E226" t="n">
-        <v>153979000000000</v>
+        <v>153983000000000</v>
       </c>
       <c r="F226" t="n">
-        <v>153979000000000</v>
+        <v>153983000000000</v>
       </c>
       <c r="G226" t="n">
         <v>0</v>
@@ -6111,16 +6111,16 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>153730000000000</v>
+        <v>153729000000000</v>
       </c>
       <c r="D227" t="n">
-        <v>153730000000000</v>
+        <v>153729000000000</v>
       </c>
       <c r="E227" t="n">
-        <v>153730000000000</v>
+        <v>153729000000000</v>
       </c>
       <c r="F227" t="n">
-        <v>153730000000000</v>
+        <v>153729000000000</v>
       </c>
       <c r="G227" t="n">
         <v>0</v>
@@ -6186,16 +6186,16 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>168199000000000</v>
+        <v>168202000000000</v>
       </c>
       <c r="D230" t="n">
-        <v>168199000000000</v>
+        <v>168202000000000</v>
       </c>
       <c r="E230" t="n">
-        <v>168199000000000</v>
+        <v>168202000000000</v>
       </c>
       <c r="F230" t="n">
-        <v>168199000000000</v>
+        <v>168202000000000</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -6211,18 +6211,93 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>171774000000000</v>
+        <v>171763000000000</v>
       </c>
       <c r="D231" t="n">
-        <v>171774000000000</v>
+        <v>171763000000000</v>
       </c>
       <c r="E231" t="n">
-        <v>171774000000000</v>
+        <v>171763000000000</v>
       </c>
       <c r="F231" t="n">
-        <v>171774000000000</v>
+        <v>171763000000000</v>
       </c>
       <c r="G231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>44958.45833333334</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>ECONOMICS:IQM2</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>171365000000000</v>
+      </c>
+      <c r="D232" t="n">
+        <v>171365000000000</v>
+      </c>
+      <c r="E232" t="n">
+        <v>171365000000000</v>
+      </c>
+      <c r="F232" t="n">
+        <v>171365000000000</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>ECONOMICS:IQM2</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>170607000000000</v>
+      </c>
+      <c r="D233" t="n">
+        <v>170607000000000</v>
+      </c>
+      <c r="E233" t="n">
+        <v>170607000000000</v>
+      </c>
+      <c r="F233" t="n">
+        <v>170607000000000</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>ECONOMICS:IQM2</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>173009000000000</v>
+      </c>
+      <c r="D234" t="n">
+        <v>173009000000000</v>
+      </c>
+      <c r="E234" t="n">
+        <v>173009000000000</v>
+      </c>
+      <c r="F234" t="n">
+        <v>173009000000000</v>
+      </c>
+      <c r="G234" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Iraq_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Iraq_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G234"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6301,6 +6301,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>ECONOMICS:IQM2</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>173403000000000</v>
+      </c>
+      <c r="D235" t="n">
+        <v>173403000000000</v>
+      </c>
+      <c r="E235" t="n">
+        <v>173403000000000</v>
+      </c>
+      <c r="F235" t="n">
+        <v>173403000000000</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Iraq_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Iraq_M2.xlsx
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -6111,16 +6111,16 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>153729000000000</v>
+        <v>153728000000000</v>
       </c>
       <c r="D227" t="n">
-        <v>153729000000000</v>
+        <v>153728000000000</v>
       </c>
       <c r="E227" t="n">
-        <v>153729000000000</v>
+        <v>153728000000000</v>
       </c>
       <c r="F227" t="n">
-        <v>153729000000000</v>
+        <v>153728000000000</v>
       </c>
       <c r="G227" t="n">
         <v>0</v>
@@ -6261,16 +6261,16 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>170607000000000</v>
+        <v>170464000000000</v>
       </c>
       <c r="D233" t="n">
-        <v>170607000000000</v>
+        <v>170464000000000</v>
       </c>
       <c r="E233" t="n">
-        <v>170607000000000</v>
+        <v>170464000000000</v>
       </c>
       <c r="F233" t="n">
-        <v>170607000000000</v>
+        <v>170464000000000</v>
       </c>
       <c r="G233" t="n">
         <v>0</v>
@@ -6286,16 +6286,16 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>173009000000000</v>
+        <v>173099000000000</v>
       </c>
       <c r="D234" t="n">
-        <v>173009000000000</v>
+        <v>173099000000000</v>
       </c>
       <c r="E234" t="n">
-        <v>173009000000000</v>
+        <v>173099000000000</v>
       </c>
       <c r="F234" t="n">
-        <v>173009000000000</v>
+        <v>173099000000000</v>
       </c>
       <c r="G234" t="n">
         <v>0</v>
@@ -6311,16 +6311,16 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>173403000000000</v>
+        <v>173492000000000</v>
       </c>
       <c r="D235" t="n">
-        <v>173403000000000</v>
+        <v>173492000000000</v>
       </c>
       <c r="E235" t="n">
-        <v>173403000000000</v>
+        <v>173492000000000</v>
       </c>
       <c r="F235" t="n">
-        <v>173403000000000</v>
+        <v>173492000000000</v>
       </c>
       <c r="G235" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Iraq_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Iraq_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G235"/>
+  <dimension ref="A1:G236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -6311,18 +6311,43 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>173492000000000</v>
+        <v>173504000000000</v>
       </c>
       <c r="D235" t="n">
-        <v>173492000000000</v>
+        <v>173504000000000</v>
       </c>
       <c r="E235" t="n">
-        <v>173492000000000</v>
+        <v>173504000000000</v>
       </c>
       <c r="F235" t="n">
-        <v>173492000000000</v>
+        <v>173504000000000</v>
       </c>
       <c r="G235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>ECONOMICS:IQM2</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>177680000000000</v>
+      </c>
+      <c r="D236" t="n">
+        <v>177680000000000</v>
+      </c>
+      <c r="E236" t="n">
+        <v>177680000000000</v>
+      </c>
+      <c r="F236" t="n">
+        <v>177680000000000</v>
+      </c>
+      <c r="G236" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Iraq_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Iraq_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G236"/>
+  <dimension ref="A1:G239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6336,18 +6336,93 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>177680000000000</v>
+        <v>177772000000000</v>
       </c>
       <c r="D236" t="n">
-        <v>177680000000000</v>
+        <v>177772000000000</v>
       </c>
       <c r="E236" t="n">
-        <v>177680000000000</v>
+        <v>177772000000000</v>
       </c>
       <c r="F236" t="n">
-        <v>177680000000000</v>
+        <v>177772000000000</v>
       </c>
       <c r="G236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>ECONOMICS:IQM2</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>176788000000000</v>
+      </c>
+      <c r="D237" t="n">
+        <v>176788000000000</v>
+      </c>
+      <c r="E237" t="n">
+        <v>176788000000000</v>
+      </c>
+      <c r="F237" t="n">
+        <v>176788000000000</v>
+      </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>ECONOMICS:IQM2</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>174322000000000</v>
+      </c>
+      <c r="D238" t="n">
+        <v>174322000000000</v>
+      </c>
+      <c r="E238" t="n">
+        <v>174322000000000</v>
+      </c>
+      <c r="F238" t="n">
+        <v>174322000000000</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>ECONOMICS:IQM2</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>173950000000000</v>
+      </c>
+      <c r="D239" t="n">
+        <v>173950000000000</v>
+      </c>
+      <c r="E239" t="n">
+        <v>173950000000000</v>
+      </c>
+      <c r="F239" t="n">
+        <v>173950000000000</v>
+      </c>
+      <c r="G239" t="n">
         <v>0</v>
       </c>
     </row>
